--- a/Product_Tracker.xlsx
+++ b/Product_Tracker.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-28800" yWindow="2880" windowWidth="21120" windowHeight="12045" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="3720" yWindow="1095" windowWidth="21120" windowHeight="14505" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TrackProduct" sheetId="1" state="visible" r:id="rId1"/>
@@ -634,7 +634,7 @@
   <dimension ref="A1:L3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
@@ -775,12 +775,12 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>25-May-2021 17h07m</t>
+          <t>02-Jun-2021 17h47m</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
@@ -790,15 +790,15 @@
       </c>
       <c r="J3" t="inlineStr">
         <is>
-          <t>$1,069.99</t>
+          <t>$1,019.99</t>
         </is>
       </c>
       <c r="K3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>pass</t>
+          <t>fail</t>
         </is>
       </c>
     </row>
